--- a/mega-shield/ecohydro-mega-shield.xlsx
+++ b/mega-shield/ecohydro-mega-shield.xlsx
@@ -203,15 +203,9 @@
     <t>C1, C4</t>
   </si>
   <si>
-    <t>22uF/6.3V</t>
-  </si>
-  <si>
     <t>C7</t>
   </si>
   <si>
-    <t>709-1231-1-ND</t>
-  </si>
-  <si>
     <t>330R</t>
   </si>
   <si>
@@ -462,6 +456,12 @@
   </si>
   <si>
     <t>4K7</t>
+  </si>
+  <si>
+    <t>22uF/10V</t>
+  </si>
+  <si>
+    <t>1276-1100-1-ND</t>
   </si>
 </sst>
 </file>
@@ -866,7 +866,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -1165,13 +1165,13 @@
         <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -1188,13 +1188,13 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1202,7 +1202,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -1211,7 +1211,7 @@
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
         <v>41</v>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -1231,7 +1231,7 @@
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
         <v>41</v>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
@@ -1251,13 +1251,13 @@
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
         <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1265,22 +1265,22 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>71</v>
-      </c>
-      <c r="F19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -1297,13 +1297,13 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
         <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1311,22 +1311,22 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
         <v>78</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>79</v>
-      </c>
-      <c r="G21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1334,19 +1334,19 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
         <v>82</v>
       </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1354,22 +1354,22 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
         <v>86</v>
       </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>87</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>88</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1377,25 +1377,25 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
         <v>91</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>92</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>93</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" t="s">
         <v>94</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1403,22 +1403,22 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>98</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>99</v>
-      </c>
-      <c r="F25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1426,25 +1426,25 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
         <v>102</v>
       </c>
-      <c r="C26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>103</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" t="s">
         <v>104</v>
-      </c>
-      <c r="F26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1452,22 +1452,22 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" t="s">
         <v>107</v>
-      </c>
-      <c r="C27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1475,22 +1475,22 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>111</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>112</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>113</v>
-      </c>
-      <c r="F28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1498,19 +1498,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>117</v>
-      </c>
-      <c r="E29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1518,19 +1518,19 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" t="s">
         <v>120</v>
       </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>121</v>
-      </c>
-      <c r="E30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1538,19 +1538,19 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" t="s">
         <v>124</v>
-      </c>
-      <c r="C31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1558,19 +1558,19 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" t="s">
         <v>127</v>
       </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" t="s">
-        <v>129</v>
-      </c>
       <c r="G32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1578,19 +1578,19 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D33">
         <v>6132</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1598,35 +1598,35 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
         <v>133</v>
       </c>
-      <c r="C34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>134</v>
-      </c>
-      <c r="E34" t="s">
-        <v>135</v>
-      </c>
-      <c r="F34" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
